--- a/config_debug/sys_binding_realName.xlsx
+++ b/config_debug/sys_binding_realName.xlsx
@@ -29,9 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币 ×3万</t>
-  </si>
-  <si>
     <t>ty_icon_jb_30y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,18 +37,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币 ×1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condi_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩具锤 x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,15 +57,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_btn_bd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰冻 x2</t>
+    <t>冰冻x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具锤x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币×1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币×3万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +406,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,10 +417,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -428,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -439,10 +440,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -453,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -467,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -484,13 +485,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sys_binding_realName.xlsx
+++ b/config_debug/sys_binding_realName.xlsx
@@ -77,7 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zjd_icon14</t>
+    <t>zjd_icon_wjc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/config_debug/sys_binding_realName.xlsx
+++ b/config_debug/sys_binding_realName.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>zjd_icon_wjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏币×1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,16 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.75" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -459,22 +468,25 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -485,12 +497,29 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
